--- a/biology/Zoologie/Dolomedes_tenebrosus/Dolomedes_tenebrosus.xlsx
+++ b/biology/Zoologie/Dolomedes_tenebrosus/Dolomedes_tenebrosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolomedes tenebrosus est une espèce d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolomedes tenebrosus est une espèce d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans l'Est de l'Amérique du Nord, du Texas, à la Nouvelle-Écosse[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans l'Est de l'Amérique du Nord, du Texas, à la Nouvelle-Écosse,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 7 à 13 mm et les femelles de 15 à 26 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 7 à 13 mm et les femelles de 15 à 26 mm.
 C'est la plus grande espèce du Québec. Dolomedes scriptus peut également atteindre une taille de 24 mm.
 Dolomedes tenebrosus est connu pour se déplacer sur de grandes distances et il est fréquent de trouver des individus dans des endroits secs, loin des plans d’eau.
 Malgré le fait qu’elles soient inoffensives, elles peuvent infliger une douloureuse morsure si elles sont manipulées sans précautions.
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hentz, 1844 : Descriptions and figures of the araneides of the United States. Boston Journal of Natural History, vol. 4, p. 386-396.</t>
         </is>
